--- a/modelagem/Resultados_2018 1ª abordagem/1. Janeiro/resultados.xlsx
+++ b/modelagem/Resultados_2018 1ª abordagem/1. Janeiro/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Modelo Individual Teste</t>
+          <t>Modelo Individual fixo</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Modelo por grupos Teste</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo com a Média Teste</t>
+          <t>Modelo Individual deslizante</t>
         </is>
       </c>
     </row>
@@ -462,13 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.71521013156884</v>
+        <v>0.1464250325822091</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8757293583353798</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.547050961698491</v>
+        <v>0.08908681820629091</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.178806212451252</v>
+        <v>0.2279687403373112</v>
       </c>
       <c r="C3" t="n">
-        <v>1.168388339722601</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9715160710262752</v>
+        <v>0.073847790915287</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2920310478503962</v>
+        <v>0.2780383796259374</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3155816934476391</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2554130327545603</v>
+        <v>0.1526603102827916</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4100738728746333</v>
+        <v>0.2304350215212573</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3359273453823983</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.4384740529016048</v>
+        <v>0.1709904755517455</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.390717296891727</v>
+        <v>0.1828113661626085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2543617230712552</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3216246087793799</v>
+        <v>0.1827565327990379</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.565346175896614</v>
+        <v>0.2172426134241674</v>
       </c>
       <c r="C7" t="n">
-        <v>1.135066900409884</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.427342509278141</v>
+        <v>0.0801523768058279</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8291615575244906</v>
+        <v>0.07882986477731824</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8614236727505283</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.6628433926397119</v>
+        <v>0.1239452301300739</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.207117191889959</v>
+        <v>0.287899620717382</v>
       </c>
       <c r="C9" t="n">
-        <v>1.050053055205207</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.10785952489322</v>
+        <v>0.1512112964204572</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1129981452636852</v>
+        <v>0.1977771916081576</v>
       </c>
       <c r="C10" t="n">
-        <v>6365618798914.73</v>
-      </c>
-      <c r="D10" t="n">
-        <v>583363894475543.5</v>
+        <v>0.03282093573190539</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.25682854519535</v>
+        <v>0.1982842703672507</v>
       </c>
       <c r="C11" t="n">
-        <v>1.332407775850369</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.675050760153509</v>
+        <v>0.1593496040621577</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.319806860435244</v>
+        <v>0.1931597708458735</v>
       </c>
       <c r="C12" t="n">
-        <v>1.134205128195486</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.664939202142926</v>
+        <v>0.06579174681577818</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1316.718410527075</v>
+        <v>0.1954835449086101</v>
       </c>
       <c r="C13" t="n">
-        <v>756.9327909893965</v>
-      </c>
-      <c r="D13" t="n">
-        <v>478.2202384068372</v>
+        <v>0.1139953194218584</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6593122510624849</v>
+        <v>0.2921107163111835</v>
       </c>
       <c r="C14" t="n">
-        <v>1.12980336036147</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.511683843228338</v>
+        <v>0.1223198389050319</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.85277525921079</v>
+        <v>0.1783254951805432</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9903586962097499</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.8319208721261208</v>
+        <v>0.06454339248122358</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.822252643200819</v>
+        <v>0.1950847179494758</v>
       </c>
       <c r="C16" t="n">
-        <v>8.601612769114027</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9.873405623116742</v>
+        <v>0.1298737755520895</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6878051320034613</v>
+        <v>0.2280000729663751</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9251548200803124</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.411137889582003</v>
+        <v>0.1139236965781596</v>
       </c>
     </row>
     <row r="18">
@@ -718,13 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3443759977683727</v>
+        <v>0.1952425875649364</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3627788755812157</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.4778507896860401</v>
+        <v>0.1255514148117107</v>
       </c>
     </row>
     <row r="19">
@@ -734,13 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7297854647182976</v>
+        <v>0.3539673873245179</v>
       </c>
       <c r="C19" t="n">
-        <v>2.082778465145232</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3.84971721158476</v>
+        <v>0.1900152520890281</v>
       </c>
     </row>
     <row r="20">
@@ -750,13 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4332160409987156</v>
+        <v>0.2511595058187107</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4033996762789489</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.4579794650282573</v>
+        <v>0.1986760831349294</v>
       </c>
     </row>
     <row r="21">
@@ -766,13 +704,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5273069796852206</v>
+        <v>0.2385018634691808</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4636164894785731</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.4520391760463153</v>
+        <v>0.1637849032400401</v>
       </c>
     </row>
     <row r="22">
@@ -782,13 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9243861595840357</v>
+        <v>0.0584162616719875</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8288653870065096</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.9942342347344981</v>
+        <v>0.05129140142111775</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.862508250328659</v>
+        <v>0.3129320475268599</v>
       </c>
       <c r="C23" t="n">
-        <v>1.275335543749246</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.275221412420585</v>
+        <v>0.1044830966678715</v>
       </c>
     </row>
     <row r="24">
@@ -814,13 +743,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6221295364855027</v>
+        <v>0.2202618200660984</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3706663334194791</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.4097335201135932</v>
+        <v>0.1281061638916026</v>
       </c>
     </row>
     <row r="25">
@@ -830,13 +756,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.530323376283053</v>
+        <v>0.3764949862246422</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9316404985569229</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.780940702867986</v>
+        <v>0.1473005242653464</v>
       </c>
     </row>
     <row r="26">
@@ -846,13 +769,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2689732618549542</v>
+        <v>0.2056684893918309</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4033420684474548</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.7900889782273944</v>
+        <v>0.1635135182251203</v>
       </c>
     </row>
     <row r="27">
@@ -862,13 +782,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.86974223474456</v>
+        <v>0.2777103095089556</v>
       </c>
       <c r="C27" t="n">
-        <v>2.081374018258684</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2.369671463366235</v>
+        <v>0.2103045470411266</v>
       </c>
     </row>
     <row r="28">
@@ -878,13 +795,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.288369066418444</v>
+        <v>0.1633623598432017</v>
       </c>
       <c r="C28" t="n">
-        <v>4.854623509658323</v>
-      </c>
-      <c r="D28" t="n">
-        <v>9.254086127641742</v>
+        <v>0.1460096336067646</v>
       </c>
     </row>
     <row r="29">
@@ -894,13 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.515016275578982</v>
+        <v>0.1113484105758139</v>
       </c>
       <c r="C29" t="n">
-        <v>1.060251999929525</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.28362720769033</v>
+        <v>0.1209867017146203</v>
       </c>
     </row>
     <row r="30">
@@ -910,13 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.260280590570422</v>
+        <v>0.09365406053634398</v>
       </c>
       <c r="C30" t="n">
-        <v>1.600621098415514</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2.19360356223266</v>
+        <v>0.1040137024753276</v>
       </c>
     </row>
     <row r="31">
@@ -926,13 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.455478362437018</v>
+        <v>0.2337848428194361</v>
       </c>
       <c r="C31" t="n">
-        <v>3.441322994715187</v>
-      </c>
-      <c r="D31" t="n">
-        <v>5.708006820355764</v>
+        <v>0.1115242124066085</v>
       </c>
     </row>
     <row r="32">
@@ -942,13 +847,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.8264370602077821</v>
+        <v>0.2020558759430152</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9217384692948711</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1.262663897398058</v>
+        <v>0.07791210882819437</v>
       </c>
     </row>
     <row r="33">
@@ -958,13 +860,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.126327392567254</v>
+        <v>0.1756659992748313</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5253308988695933</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1.000280393217595</v>
+        <v>0.1558566196079559</v>
       </c>
     </row>
     <row r="34">
@@ -974,13 +873,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.5606630471303842</v>
+        <v>0.1709322008733629</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3923694381313535</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.5811517443848793</v>
+        <v>0.1339774892251737</v>
       </c>
     </row>
     <row r="35">
@@ -990,13 +886,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.625453408494434</v>
+        <v>0.4078176426600337</v>
       </c>
       <c r="C35" t="n">
-        <v>2.00908672606722</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2.313635014278467</v>
+        <v>0.1277666901991311</v>
       </c>
     </row>
     <row r="36">
@@ -1006,13 +899,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.230751825804685</v>
+        <v>0.2049509640451923</v>
       </c>
       <c r="C36" t="n">
-        <v>1.75693824453482</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1.827124038500455</v>
+        <v>0.1707190970945093</v>
       </c>
     </row>
     <row r="37">
@@ -1022,13 +912,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.13248323687289</v>
+        <v>0.348072098511708</v>
       </c>
       <c r="C37" t="n">
-        <v>1.57667297125655</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1.912923493692248</v>
+        <v>0.1838645101912513</v>
       </c>
     </row>
     <row r="38">
@@ -1038,13 +925,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.579161981870069</v>
+        <v>0.1842369023722813</v>
       </c>
       <c r="C38" t="n">
-        <v>1.471512006347921</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2.269058594990643</v>
+        <v>0.1376169827007315</v>
       </c>
     </row>
     <row r="39">
@@ -1054,13 +938,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.4960930145171507</v>
+        <v>0.181905592605693</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4206396522350215</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.5311251043748472</v>
+        <v>0.115723116099571</v>
       </c>
     </row>
     <row r="40">
@@ -1070,13 +951,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.77273029265604</v>
+        <v>0.307497294376802</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6838829335802672</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.7546713621522734</v>
+        <v>0.157422856764971</v>
       </c>
     </row>
     <row r="41">
@@ -1086,13 +964,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9885053805108784</v>
+        <v>0.1347906576492658</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6776147662219727</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.9088845688938811</v>
+        <v>0.1771027027349692</v>
       </c>
     </row>
     <row r="42">
@@ -1102,13 +977,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10.41612475979291</v>
+        <v>0.2387899959690668</v>
       </c>
       <c r="C42" t="n">
-        <v>6.311481393263544</v>
-      </c>
-      <c r="D42" t="n">
-        <v>9.828126151824948</v>
+        <v>0.1713116247251736</v>
       </c>
     </row>
     <row r="43">
@@ -1118,13 +990,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.887931461801938</v>
+        <v>0.2536759247551055</v>
       </c>
       <c r="C43" t="n">
-        <v>1.301341039138506</v>
-      </c>
-      <c r="D43" t="n">
-        <v>3.530758594543332</v>
+        <v>0.1697879305271839</v>
       </c>
     </row>
     <row r="44">
@@ -1134,13 +1003,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.482912788169966</v>
+        <v>0.3946129520907573</v>
       </c>
       <c r="C44" t="n">
-        <v>1.910249800803612</v>
-      </c>
-      <c r="D44" t="n">
-        <v>4.059424038000854</v>
+        <v>0.2016629710383538</v>
       </c>
     </row>
     <row r="45">
@@ -1150,13 +1016,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.5202236704379171</v>
+        <v>0.22678651925316</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4699942921960061</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.4239283533362316</v>
+        <v>0.1483470537409141</v>
       </c>
     </row>
     <row r="46">
@@ -1166,13 +1029,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.5106149223996679</v>
+        <v>0.2219118172470783</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4952287890998379</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.6482136162040965</v>
+        <v>0.1807544085854751</v>
       </c>
     </row>
     <row r="47">
@@ -1182,13 +1042,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.6766974607895401</v>
+        <v>0.2722556562854714</v>
       </c>
       <c r="C47" t="n">
-        <v>0.616258605307065</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.6783925054106759</v>
+        <v>0.1796265233317305</v>
       </c>
     </row>
     <row r="48">
@@ -1198,13 +1055,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.873590725631135</v>
+        <v>0.1153781872217367</v>
       </c>
       <c r="C48" t="n">
-        <v>1.722774220962282</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1.180910511332211</v>
+        <v>0.09414880448286551</v>
       </c>
     </row>
     <row r="49">
@@ -1214,13 +1068,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5.801962847340729</v>
+        <v>0.2304241794184997</v>
       </c>
       <c r="C49" t="n">
-        <v>2.861480558886872</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1.824978201544087</v>
+        <v>0.165393995284736</v>
       </c>
     </row>
     <row r="50">
@@ -1230,13 +1081,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.205000318837758</v>
+        <v>0.1780699167681879</v>
       </c>
       <c r="C50" t="n">
-        <v>2.010143020968022</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1.32616966416171</v>
+        <v>0.1843236760079963</v>
       </c>
     </row>
     <row r="51">
@@ -1246,13 +1094,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.8542694774245474</v>
+        <v>0.07902893480677443</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8849972505783719</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1.045825874880741</v>
+        <v>0.01765988241142161</v>
       </c>
     </row>
     <row r="52">
@@ -1262,13 +1107,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9852666209036262</v>
+        <v>0.1547437145622717</v>
       </c>
       <c r="C52" t="n">
-        <v>1.34518291951269</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9094144659841509</v>
+        <v>0.1816630800195785</v>
       </c>
     </row>
     <row r="53">
@@ -1278,13 +1120,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>348196691533109.2</v>
+        <v>0.1325668183637655</v>
       </c>
       <c r="C53" t="n">
-        <v>129799644195028.3</v>
-      </c>
-      <c r="D53" t="n">
-        <v>248204990202260.5</v>
+        <v>0.156781724664439</v>
       </c>
     </row>
     <row r="54">
@@ -1294,13 +1133,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.8817092809134819</v>
+        <v>0.4017632436214248</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5403559542744331</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1.520419077433504</v>
+        <v>0.1419925333806114</v>
       </c>
     </row>
     <row r="55">
@@ -1310,13 +1146,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.7095411726084003</v>
+        <v>0.2944573530420615</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5413882063237516</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.075929834855875</v>
+        <v>0.1774754938728921</v>
       </c>
     </row>
   </sheetData>
